--- a/Week 16/Methods/Model/ScoredSubAFiltered.xlsx
+++ b/Week 16/Methods/Model/ScoredSubAFiltered.xlsx
@@ -463,7 +463,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
